--- a/static/周报材料/cnfeol1.xlsx
+++ b/static/周报材料/cnfeol1.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-4V3P1KO\Desktop\周报材料\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480DBCA4-EBE5-4B67-ADE0-253AC52F5D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>港口</t>
-  </si>
-  <si>
-    <t>5月31日</t>
-  </si>
-  <si>
-    <t>6月6日</t>
   </si>
   <si>
     <t>增减</t>
@@ -32,92 +31,56 @@
     <t>天津港</t>
   </si>
   <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>钦州港</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>曹妃甸</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>↓0.5</t>
-  </si>
-  <si>
-    <t>连云港</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>↓0.1</t>
-  </si>
-  <si>
-    <t>南通港</t>
-  </si>
-  <si>
-    <t>18.4</t>
-  </si>
-  <si>
-    <t>--</t>
+    <t>曹妃甸港</t>
   </si>
   <si>
     <t>总量</t>
-  </si>
-  <si>
-    <t>436.2</t>
-  </si>
-  <si>
-    <t>431.6</t>
-  </si>
-  <si>
-    <t>↓4.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDF0F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,17 +88,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,118 +416,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2">
+        <v>43910</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1">
+        <v>330</v>
+      </c>
+      <c r="C2" s="1">
+        <v>335</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1">
+        <v>121</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="4" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="1">
+        <v>95</v>
+      </c>
+      <c r="C4" s="1">
+        <v>119</v>
+      </c>
+      <c r="D4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B5" s="1">
+        <v>550</v>
+      </c>
+      <c r="C5" s="1">
+        <v>575</v>
+      </c>
+      <c r="D5" s="1">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>